--- a/Outputs/4. Prosumer percentage constrained/Output Files/60/Output_1_27.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Output Files/60/Output_1_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1892041.701170314</v>
+        <v>1881619.208217841</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791243</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8952394.330375152</v>
+        <v>8952394.330375154</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>62.48593599740699</v>
       </c>
       <c r="G2" t="n">
-        <v>42.07754048894142</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -719,13 +719,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,13 +747,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>96.52485201226574</v>
+        <v>9.1104097768589</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.2276889092491</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>130.417892858628</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>54.35993052730264</v>
       </c>
       <c r="G5" t="n">
         <v>9.031127956876844</v>
@@ -950,19 +950,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>260.7237950123096</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>50.6435372072262</v>
+        <v>50.6435372072244</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>23.09429293193062</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>223.7498202162628</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>210.2858739186775</v>
       </c>
       <c r="F8" t="n">
-        <v>205.4880364196335</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1184,19 +1184,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1294,25 +1294,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>116.876383545772</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
@@ -1382,13 +1382,13 @@
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.952815562145</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344424</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.913742893614</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>106.4741046921187</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>97.4247543599388</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177853</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465764</v>
+        <v>29.15829740541298</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442491</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456102</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534023</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>123.8324201937135</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.64718169059</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621448</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344422</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>31.2984695742206</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>148.6995003621361</v>
       </c>
       <c r="V14" t="n">
         <v>267.6074288087848</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681693</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338897</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>26.30561415707607</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845441</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>55.1126895796647</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001147</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -1844,25 +1844,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875521</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277564</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059319</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880397</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908638</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.7168126509261</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380521</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357248</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596462</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253666</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708589</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369182</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593878</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404347</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C28" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380448</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>283.709878481573</v>
+        <v>283.7098784815729</v>
       </c>
       <c r="C32" t="n">
-        <v>276.4638267093888</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>268.806797722789</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>285.777769861911</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
         <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>296.251208184167</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
         <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>24.17382596574994</v>
+        <v>24.17382596574984</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>52.06849973565006</v>
+        <v>52.06849973564997</v>
       </c>
       <c r="T32" t="n">
-        <v>108.4856766434676</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>140.4152824970375</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>225.9058214308069</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>254.5091249086855</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
         <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>279.745882215895</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>70.57601873167839</v>
+        <v>70.57601873167829</v>
       </c>
       <c r="C34" t="n">
-        <v>55.7231469819608</v>
+        <v>55.7231469819607</v>
       </c>
       <c r="D34" t="n">
-        <v>41.29686219380052</v>
+        <v>41.29686219380042</v>
       </c>
       <c r="E34" t="n">
-        <v>41.22330424667963</v>
+        <v>41.22330424667953</v>
       </c>
       <c r="F34" t="n">
-        <v>42.9727556664469</v>
+        <v>42.9727556664468</v>
       </c>
       <c r="G34" t="n">
-        <v>53.79159358883904</v>
+        <v>53.79159358883894</v>
       </c>
       <c r="H34" t="n">
-        <v>41.14384575541108</v>
+        <v>41.14384575541098</v>
       </c>
       <c r="I34" t="n">
-        <v>18.98356133658301</v>
+        <v>18.98356133658291</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.882059701038926</v>
+        <v>9.882059701038827</v>
       </c>
       <c r="S34" t="n">
-        <v>88.00800320656624</v>
+        <v>88.00800320656614</v>
       </c>
       <c r="T34" t="n">
-        <v>120.5819415407383</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>169.8044840678082</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>150.5396319546741</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>167.7171782754243</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>118.9595992221368</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>108.1010207988132</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96.85984733640254</v>
+        <v>1049.295727741028</v>
       </c>
       <c r="C2" t="n">
-        <v>96.85984733640254</v>
+        <v>656.1202262439583</v>
       </c>
       <c r="D2" t="n">
-        <v>96.85984733640254</v>
+        <v>656.1202262439583</v>
       </c>
       <c r="E2" t="n">
-        <v>96.85984733640254</v>
+        <v>656.1202262439583</v>
       </c>
       <c r="F2" t="n">
-        <v>84.00581290678436</v>
+        <v>593.0031191758704</v>
       </c>
       <c r="G2" t="n">
-        <v>41.50324675633847</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>41.50324675633847</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>41.50324675633847</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J2" t="n">
-        <v>41.50324675633847</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>41.50324675633847</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>534.8235384748673</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>1048.426217084556</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="N2" t="n">
-        <v>1562.028895694245</v>
+        <v>1102.089684652123</v>
       </c>
       <c r="O2" t="n">
-        <v>2002.068496586573</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="P2" t="n">
-        <v>2075.162337816923</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q2" t="n">
-        <v>2075.162337816923</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2075.162337816923</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S2" t="n">
-        <v>2075.162337816923</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="T2" t="n">
-        <v>1851.66173537634</v>
+        <v>1647.155266602911</v>
       </c>
       <c r="U2" t="n">
-        <v>1595.909005810939</v>
+        <v>1391.402537037509</v>
       </c>
       <c r="V2" t="n">
-        <v>1253.802196514457</v>
+        <v>1049.295727741028</v>
       </c>
       <c r="W2" t="n">
-        <v>882.8031614827446</v>
+        <v>1049.295727741028</v>
       </c>
       <c r="X2" t="n">
-        <v>493.3505564158014</v>
+        <v>1049.295727741028</v>
       </c>
       <c r="Y2" t="n">
-        <v>96.85984733640254</v>
+        <v>1049.295727741028</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>556.1927859813184</v>
+        <v>556.1927859813165</v>
       </c>
       <c r="C3" t="n">
-        <v>405.5385555414106</v>
+        <v>405.5385555414088</v>
       </c>
       <c r="D3" t="n">
-        <v>275.4495881628909</v>
+        <v>275.4495881628891</v>
       </c>
       <c r="E3" t="n">
-        <v>139.0030972737786</v>
+        <v>139.0030972737768</v>
       </c>
       <c r="F3" t="n">
-        <v>41.50324675633847</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="G3" t="n">
-        <v>41.50324675633847</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H3" t="n">
-        <v>41.50324675633847</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I3" t="n">
-        <v>41.50324675633847</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J3" t="n">
-        <v>154.6182289760658</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K3" t="n">
-        <v>474.3573750382923</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="L3" t="n">
-        <v>474.3573750382923</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M3" t="n">
-        <v>813.5918890426557</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="N3" t="n">
-        <v>1327.194567652344</v>
+        <v>921.5731989359455</v>
       </c>
       <c r="O3" t="n">
-        <v>1840.797246262033</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P3" t="n">
-        <v>1840.797246262033</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q3" t="n">
-        <v>2075.162337816923</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2051.245294714988</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S3" t="n">
-        <v>1916.314617614857</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T3" t="n">
-        <v>1739.330805813765</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U3" t="n">
-        <v>1529.267662492407</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V3" t="n">
-        <v>1306.727660863474</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W3" t="n">
-        <v>1076.610414996761</v>
+        <v>1076.610414996759</v>
       </c>
       <c r="X3" t="n">
-        <v>887.3033373467724</v>
+        <v>887.3033373467706</v>
       </c>
       <c r="Y3" t="n">
-        <v>707.9891204222797</v>
+        <v>707.9891204222779</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.50324675633847</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="C4" t="n">
-        <v>41.50324675633847</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="D4" t="n">
-        <v>41.50324675633847</v>
+        <v>811.2150239861455</v>
       </c>
       <c r="E4" t="n">
-        <v>41.50324675633847</v>
+        <v>655.656211845348</v>
       </c>
       <c r="F4" t="n">
-        <v>41.50324675633847</v>
+        <v>498.330277058321</v>
       </c>
       <c r="G4" t="n">
-        <v>41.50324675633847</v>
+        <v>330.0762231577665</v>
       </c>
       <c r="H4" t="n">
-        <v>41.50324675633847</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="I4" t="n">
-        <v>41.50324675633847</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J4" t="n">
-        <v>41.50324675633847</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K4" t="n">
         <v>123.3382878662803</v>
@@ -4519,19 +4519,19 @@
         <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>657.5114775397919</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>657.5114775397919</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W4" t="n">
-        <v>657.5114775397919</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X4" t="n">
-        <v>423.431155322775</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.3190941394184</v>
+        <v>942.9502692978909</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63.47963265754942</v>
+        <v>498.7101204596498</v>
       </c>
       <c r="C5" t="n">
-        <v>63.47963265754942</v>
+        <v>105.5346189625803</v>
       </c>
       <c r="D5" t="n">
-        <v>63.47963265754942</v>
+        <v>105.5346189625803</v>
       </c>
       <c r="E5" t="n">
-        <v>63.47963265754942</v>
+        <v>105.5346189625803</v>
       </c>
       <c r="F5" t="n">
-        <v>50.62559822793124</v>
+        <v>50.62559822793121</v>
       </c>
       <c r="G5" t="n">
-        <v>41.50324675633847</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="H5" t="n">
-        <v>41.50324675633847</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I5" t="n">
-        <v>41.50324675633847</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J5" t="n">
-        <v>41.50324675633847</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K5" t="n">
-        <v>114.5970879866889</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="L5" t="n">
-        <v>607.9173797052177</v>
+        <v>423.0718195642685</v>
       </c>
       <c r="M5" t="n">
-        <v>1121.520058314906</v>
+        <v>936.6744981739565</v>
       </c>
       <c r="N5" t="n">
-        <v>1635.122736924595</v>
+        <v>1450.277176783645</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.162337816923</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="P5" t="n">
-        <v>2075.162337816923</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q5" t="n">
-        <v>2075.162337816923</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2075.162337816923</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S5" t="n">
-        <v>1908.648782757974</v>
+        <v>1908.648782757972</v>
       </c>
       <c r="T5" t="n">
-        <v>1685.148180317391</v>
+        <v>1685.148180317389</v>
       </c>
       <c r="U5" t="n">
-        <v>1429.395450751989</v>
+        <v>1685.148180317389</v>
       </c>
       <c r="V5" t="n">
-        <v>1087.288641455508</v>
+        <v>1685.148180317389</v>
       </c>
       <c r="W5" t="n">
-        <v>716.2896064237952</v>
+        <v>1685.148180317389</v>
       </c>
       <c r="X5" t="n">
-        <v>326.8370013568521</v>
+        <v>1295.695575250445</v>
       </c>
       <c r="Y5" t="n">
-        <v>63.47963265754942</v>
+        <v>899.2048661710467</v>
       </c>
     </row>
     <row r="6">
@@ -4638,40 +4638,40 @@
         <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>90.89050074442687</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I6" t="n">
-        <v>41.50324675633847</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J6" t="n">
-        <v>41.50324675633847</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K6" t="n">
-        <v>361.2423928185649</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="L6" t="n">
-        <v>361.2423928185649</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M6" t="n">
-        <v>874.8450714282534</v>
+        <v>921.5731989359455</v>
       </c>
       <c r="N6" t="n">
-        <v>1155.938290490838</v>
+        <v>921.5731989359455</v>
       </c>
       <c r="O6" t="n">
-        <v>1669.540969100526</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P6" t="n">
-        <v>2075.162337816923</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q6" t="n">
-        <v>2075.162337816923</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2075.162337816923</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S6" t="n">
-        <v>2075.162337816923</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T6" t="n">
         <v>2024.007249728816</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>71.88151693023653</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="C7" t="n">
-        <v>71.88151693023653</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="D7" t="n">
-        <v>71.88151693023653</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="E7" t="n">
-        <v>71.88151693023653</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="F7" t="n">
-        <v>71.88151693023653</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="G7" t="n">
-        <v>71.88151693023653</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="H7" t="n">
-        <v>71.88151693023653</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I7" t="n">
-        <v>71.88151693023653</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J7" t="n">
-        <v>41.50324675633847</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K7" t="n">
         <v>123.3382878662803</v>
@@ -4747,28 +4747,28 @@
         <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>819.0492799304679</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>819.0492799304679</v>
+        <v>919.6227006797792</v>
       </c>
       <c r="T7" t="n">
-        <v>583.330228098702</v>
+        <v>683.9036488480133</v>
       </c>
       <c r="U7" t="n">
-        <v>297.891436340603</v>
+        <v>683.9036488480133</v>
       </c>
       <c r="V7" t="n">
-        <v>71.88151693023653</v>
+        <v>683.9036488480133</v>
       </c>
       <c r="W7" t="n">
-        <v>71.88151693023653</v>
+        <v>683.9036488480133</v>
       </c>
       <c r="X7" t="n">
-        <v>71.88151693023653</v>
+        <v>449.8233266309963</v>
       </c>
       <c r="Y7" t="n">
-        <v>71.88151693023653</v>
+        <v>226.7112654476397</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>402.3361116318164</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="C8" t="n">
-        <v>402.3361116318164</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="D8" t="n">
-        <v>402.3361116318164</v>
+        <v>1552.200305079837</v>
       </c>
       <c r="E8" t="n">
-        <v>402.3361116318164</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806715</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>358.4764287842793</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028082</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.797620547389</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184851</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362701</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303752</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303752</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>1905.389306738351</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V8" t="n">
-        <v>1563.282497441869</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W8" t="n">
-        <v>1192.283462410157</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="X8" t="n">
-        <v>802.8308573432133</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="Y8" t="n">
-        <v>802.8308573432133</v>
+        <v>1937.641433863169</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H9" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154359</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154359</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083082</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.14176221491</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805891</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W9" t="n">
         <v>1367.096582257017</v>
@@ -4926,7 +4926,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="10">
@@ -4936,37 +4936,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4993,19 +4993,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>830.7030395665587</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1645.302650055463</v>
+        <v>1780.935942880365</v>
       </c>
       <c r="C11" t="n">
-        <v>1645.302650055463</v>
+        <v>1459.556716529489</v>
       </c>
       <c r="D11" t="n">
-        <v>1331.657796418325</v>
+        <v>1145.91186289235</v>
       </c>
       <c r="E11" t="n">
-        <v>1000.870546681062</v>
+        <v>815.1246131550884</v>
       </c>
       <c r="F11" t="n">
-        <v>655.772383357234</v>
+        <v>470.0264498312598</v>
       </c>
       <c r="G11" t="n">
-        <v>314.405902991431</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3038.366745919298</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2886.662418624908</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2886.662418624908</v>
+        <v>2751.985177299522</v>
       </c>
       <c r="V11" t="n">
-        <v>2616.35188447462</v>
+        <v>2751.985177299522</v>
       </c>
       <c r="W11" t="n">
-        <v>2616.35188447462</v>
+        <v>2751.985177299522</v>
       </c>
       <c r="X11" t="n">
-        <v>2298.695554553871</v>
+        <v>2434.328847378772</v>
       </c>
       <c r="Y11" t="n">
-        <v>1974.001120620666</v>
+        <v>2109.634413445568</v>
       </c>
     </row>
     <row r="12">
@@ -5118,19 +5118,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>174.7633905351325</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>174.7633905351325</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>174.7633905351325</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>802.5350401618138</v>
+        <v>1319.055322752795</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O12" t="n">
         <v>1974.833293963354</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>474.9551552953891</v>
+        <v>286.4385749083266</v>
       </c>
       <c r="C13" t="n">
-        <v>376.5463125075721</v>
+        <v>188.0297321205094</v>
       </c>
       <c r="D13" t="n">
-        <v>292.7094745562807</v>
+        <v>188.0297321205094</v>
       </c>
       <c r="E13" t="n">
-        <v>208.946937561677</v>
+        <v>158.5769064584761</v>
       </c>
       <c r="F13" t="n">
-        <v>123.4172779208437</v>
+        <v>158.5769064584761</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208437</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208437</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,22 +5200,22 @@
         <v>102.7129143774625</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581889</v>
+        <v>254.915484758189</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027733</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118219</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138157</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173671</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
         <v>1496.732641814507</v>
@@ -5233,16 +5233,16 @@
         <v>1119.16734851703</v>
       </c>
       <c r="V13" t="n">
-        <v>924.9842784840478</v>
+        <v>924.9842784840482</v>
       </c>
       <c r="W13" t="n">
-        <v>713.4501515614193</v>
+        <v>713.4501515614196</v>
       </c>
       <c r="X13" t="n">
-        <v>713.4501515614193</v>
+        <v>551.1661044905966</v>
       </c>
       <c r="Y13" t="n">
-        <v>588.3668988404966</v>
+        <v>399.8503184534338</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1966.681876406338</v>
+        <v>1714.395101119022</v>
       </c>
       <c r="C14" t="n">
-        <v>1645.302650055462</v>
+        <v>1393.015874768147</v>
       </c>
       <c r="D14" t="n">
-        <v>1331.657796418324</v>
+        <v>1079.371021131009</v>
       </c>
       <c r="E14" t="n">
-        <v>1000.870546681062</v>
+        <v>748.5837713937469</v>
       </c>
       <c r="F14" t="n">
-        <v>655.7723833572339</v>
+        <v>403.4856080699187</v>
       </c>
       <c r="G14" t="n">
-        <v>314.405902991431</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3074.341769474241</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3074.341769474241</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2890.385315055033</v>
+        <v>2955.754869688467</v>
       </c>
       <c r="V14" t="n">
-        <v>2620.074780904745</v>
+        <v>2685.44433553818</v>
       </c>
       <c r="W14" t="n">
-        <v>2620.074780904745</v>
+        <v>2685.44433553818</v>
       </c>
       <c r="X14" t="n">
-        <v>2620.074780904745</v>
+        <v>2367.78800561743</v>
       </c>
       <c r="Y14" t="n">
-        <v>2295.380346971541</v>
+        <v>2043.093571684225</v>
       </c>
     </row>
     <row r="15">
@@ -5361,13 +5361,13 @@
         <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>381.858273766342</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>802.5350401618138</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O15" t="n">
         <v>1974.833293963354</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>242.259182350788</v>
+        <v>374.6989287590505</v>
       </c>
       <c r="C16" t="n">
-        <v>242.259182350788</v>
+        <v>374.6989287590505</v>
       </c>
       <c r="D16" t="n">
-        <v>242.259182350788</v>
+        <v>290.8620908077595</v>
       </c>
       <c r="E16" t="n">
-        <v>242.259182350788</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="F16" t="n">
-        <v>242.259182350788</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="G16" t="n">
-        <v>145.8014035964276</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
         <v>999.626924813816</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1470.161314383118</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1339.141505711861</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1175.218729026289</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>961.576212414384</v>
+        <v>1094.015958822647</v>
       </c>
       <c r="V16" t="n">
-        <v>767.3931423814022</v>
+        <v>899.8328887896648</v>
       </c>
       <c r="W16" t="n">
-        <v>555.8590154587737</v>
+        <v>688.2987618670363</v>
       </c>
       <c r="X16" t="n">
-        <v>393.5749683879508</v>
+        <v>526.0147147962133</v>
       </c>
       <c r="Y16" t="n">
-        <v>242.259182350788</v>
+        <v>374.6989287590505</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
         <v>1352.560722599515</v>
@@ -5498,16 +5498,16 @@
         <v>1098.796330498591</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975443</v>
+        <v>827.8895422975445</v>
       </c>
       <c r="F17" t="n">
         <v>542.6718405099309</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803428</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924184</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5531,7 +5531,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
         <v>3105.956385205776</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5555,7 +5555,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1223.947919817482</v>
+        <v>1319.055322752795</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.93197918856</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369576</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218807</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634917</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.915947958873</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.3386307407269</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462925</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5674,49 +5674,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>273.0105384364858</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184709</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567349</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879441</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296521</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106231</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918818</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161911</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194237</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330097</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984012</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974529</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5735,13 +5735,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
         <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
         <v>68.77950792924224</v>
@@ -5750,19 +5750,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,13 +5771,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,7 +5786,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5829,16 +5829,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5902,34 +5902,34 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N22" t="n">
-        <v>683.142663665514</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O22" t="n">
-        <v>845.8474307072221</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P22" t="n">
-        <v>965.7235964838006</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5969,16 +5969,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
         <v>68.77950792924224</v>
@@ -6023,7 +6023,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
         <v>2405.467337224691</v>
@@ -6066,13 +6066,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
         <v>1223.947919817482</v>
@@ -6145,28 +6145,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>278.5901810446697</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>442.7178209184696</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6218,7 +6218,7 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
         <v>73.36485894755026</v>
@@ -6230,31 +6230,31 @@
         <v>576.9969878838402</v>
       </c>
       <c r="L26" t="n">
-        <v>1163.368641331942</v>
+        <v>1156.101301882804</v>
       </c>
       <c r="M26" t="n">
-        <v>1802.420903106096</v>
+        <v>1795.153563656958</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2416.016209023994</v>
       </c>
       <c r="O26" t="n">
-        <v>2956.374511095034</v>
+        <v>2949.107171645896</v>
       </c>
       <c r="P26" t="n">
-        <v>3397.613364956129</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174144</v>
@@ -6303,16 +6303,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985353</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414155</v>
+        <v>368.3732297414159</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878062</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879675</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746014</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904117</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286446</v>
+        <v>861.9084564286451</v>
       </c>
       <c r="X28" t="n">
-        <v>722.768815498816</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026477</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="29">
@@ -6446,49 +6446,49 @@
         <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218597</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390258</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142174</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563783</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838401</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1163.368641331942</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1802.420903106096</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473132</v>
+        <v>2609.386271932278</v>
       </c>
       <c r="O29" t="n">
-        <v>2956.374511095034</v>
+        <v>3135.209895105043</v>
       </c>
       <c r="P29" t="n">
-        <v>3397.613364956129</v>
+        <v>3483.397387236565</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.428440379499</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
         <v>3468.110152452356</v>
@@ -6506,7 +6506,7 @@
         <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
         <v>186.4798411672776</v>
@@ -6549,7 +6549,7 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985346</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517123</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414155</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878064</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879677</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746016</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286445</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026476</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1743.79887591859</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1464.542485303046</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1193.020467401239</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>904.3560533993084</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>601.3807258108113</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>302.1370811803395</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>91.97314162835518</v>
+        <v>91.97314162835504</v>
       </c>
       <c r="I32" t="n">
-        <v>67.55513560234513</v>
+        <v>67.55513560234509</v>
       </c>
       <c r="J32" t="n">
-        <v>212.2049085111732</v>
+        <v>292.5019091060163</v>
       </c>
       <c r="K32" t="n">
-        <v>571.1872645386351</v>
+        <v>651.4842651334782</v>
       </c>
       <c r="L32" t="n">
-        <v>1144.804556852009</v>
+        <v>1144.804556852007</v>
       </c>
       <c r="M32" t="n">
-        <v>1690.805456896589</v>
+        <v>1690.805456896588</v>
       </c>
       <c r="N32" t="n">
-        <v>2218.616740534052</v>
+        <v>2218.61674053405</v>
       </c>
       <c r="O32" t="n">
-        <v>2658.65634142638</v>
+        <v>2658.656341426378</v>
       </c>
       <c r="P32" t="n">
-        <v>3006.843833557902</v>
+        <v>3006.8438335579</v>
       </c>
       <c r="Q32" t="n">
-        <v>3303.341514273834</v>
+        <v>3303.341514273832</v>
       </c>
       <c r="R32" t="n">
-        <v>3377.756780117256</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.162335939832</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.580844380774</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3073.747225696898</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2845.559527281941</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2588.479603131754</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2312.946108946336</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2030.374510748462</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>866.9211187423762</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>716.2668883024684</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>586.1779209239487</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>449.7314300348364</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>325.2996239179682</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
         <v>205.2398059898326</v>
@@ -6774,16 +6774,16 @@
         <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>67.55513560234513</v>
+        <v>67.55513560234509</v>
       </c>
       <c r="J33" t="n">
         <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>500.409263884299</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>983.9753497826123</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
         <v>1229.383927715712</v>
@@ -6822,7 +6822,7 @@
         <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1018.717453183338</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>365.6713676929724</v>
+        <v>365.6713676929717</v>
       </c>
       <c r="C34" t="n">
-        <v>309.3853606404867</v>
+        <v>309.3853606404861</v>
       </c>
       <c r="D34" t="n">
-        <v>267.6713584245266</v>
+        <v>267.6713584245261</v>
       </c>
       <c r="E34" t="n">
-        <v>226.0316571652543</v>
+        <v>226.0316571652538</v>
       </c>
       <c r="F34" t="n">
-        <v>182.6248332597523</v>
+        <v>182.624833259752</v>
       </c>
       <c r="G34" t="n">
-        <v>128.289890240723</v>
+        <v>128.2898902407228</v>
       </c>
       <c r="H34" t="n">
-        <v>86.73045008374211</v>
+        <v>86.73045008374197</v>
       </c>
       <c r="I34" t="n">
-        <v>67.55513560234513</v>
+        <v>67.55513560234509</v>
       </c>
       <c r="J34" t="n">
-        <v>149.4335135798904</v>
+        <v>149.4335135798905</v>
       </c>
       <c r="K34" t="n">
-        <v>231.2685546898323</v>
+        <v>342.9206752648153</v>
       </c>
       <c r="L34" t="n">
-        <v>507.0483151386148</v>
+        <v>618.7004357135979</v>
       </c>
       <c r="M34" t="n">
-        <v>804.9920140518616</v>
+        <v>910.7916726541096</v>
       </c>
       <c r="N34" t="n">
-        <v>1093.98130668532</v>
+        <v>1093.981306685319</v>
       </c>
       <c r="O34" t="n">
-        <v>1256.686073727028</v>
+        <v>1256.686073727027</v>
       </c>
       <c r="P34" t="n">
-        <v>1376.562239503607</v>
+        <v>1376.562239503605</v>
       </c>
       <c r="Q34" t="n">
-        <v>1379.984435873658</v>
+        <v>1379.984435873656</v>
       </c>
       <c r="R34" t="n">
-        <v>1370.00255738776</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1281.105584451834</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1159.305643501594</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>987.7859626250197</v>
+        <v>987.7859626250186</v>
       </c>
       <c r="V34" t="n">
-        <v>835.7257283273691</v>
+        <v>835.725728327368</v>
       </c>
       <c r="W34" t="n">
-        <v>666.3144371400718</v>
+        <v>666.3144371400708</v>
       </c>
       <c r="X34" t="n">
-        <v>546.1532258045801</v>
+        <v>546.1532258045792</v>
       </c>
       <c r="Y34" t="n">
-        <v>436.9602755027486</v>
+        <v>436.9602755027477</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292423</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129439</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
         <v>1059.071548358934</v>
@@ -6965,19 +6965,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7011,7 +7011,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
         <v>175.2341099238429</v>
@@ -7023,7 +7023,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7084,37 +7084,37 @@
         <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072671</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462916</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>442.7178209184696</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7138,7 +7138,7 @@
         <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974522</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7157,19 +7157,19 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803433</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924253</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7248,19 +7248,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7321,16 +7321,16 @@
         <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072666</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462913</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
         <v>143.9541688140574</v>
@@ -7348,10 +7348,10 @@
         <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>960.1439538756169</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532862</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7366,13 +7366,13 @@
         <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194224</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330085</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984001</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
         <v>289.463261197452</v>
@@ -7394,7 +7394,7 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975448</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F41" t="n">
         <v>542.6718405099311</v>
@@ -7403,58 +7403,58 @@
         <v>261.1858216803428</v>
       </c>
       <c r="H41" t="n">
-        <v>68.7795079292423</v>
+        <v>68.77950792924219</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L41" t="n">
         <v>1059.071548358935</v>
       </c>
       <c r="M41" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N41" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O41" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7546,7 +7546,7 @@
         <v>235.931979188559</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369568</v>
       </c>
       <c r="D43" t="n">
         <v>173.44722152188</v>
@@ -7555,40 +7555,40 @@
         <v>149.5651460634911</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G43" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072661</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462912</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>67.69877031229814</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>149.53381142224</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>313.6614512960398</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>499.9530296343038</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>683.1426636655131</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>845.8474307072211</v>
+        <v>969.3241577214671</v>
       </c>
       <c r="P43" t="n">
-        <v>965.7235964837996</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476279</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R43" t="n">
         <v>1098.202162476279</v>
@@ -7643,7 +7643,7 @@
         <v>68.77950792924227</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7670,10 +7670,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7722,25 +7722,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411552</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L45" t="n">
-        <v>545.6852136024288</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M45" t="n">
-        <v>1173.45686322911</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N45" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O45" t="n">
-        <v>2345.75511703065</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
         <v>2380.454662679751</v>
@@ -7786,7 +7786,7 @@
         <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218804</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
         <v>149.5651460634914</v>
@@ -7795,25 +7795,25 @@
         <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072677</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462919</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>67.69877031229973</v>
+        <v>67.69877031229987</v>
       </c>
       <c r="K46" t="n">
-        <v>149.5338114222416</v>
+        <v>149.5338114222417</v>
       </c>
       <c r="L46" t="n">
-        <v>313.6614512960414</v>
+        <v>442.71782091847</v>
       </c>
       <c r="M46" t="n">
-        <v>499.9530296343054</v>
+        <v>629.009399256734</v>
       </c>
       <c r="N46" t="n">
         <v>812.1990332879432</v>
@@ -7849,7 +7849,7 @@
         <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974524</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>668.5156360519582</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>667.909075792015</v>
+        <v>213.3952764296684</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>224.1336100998649</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,25 +8055,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>435.0482473062447</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>604.1626973083975</v>
+        <v>485.8810686938573</v>
       </c>
       <c r="O3" t="n">
-        <v>611.4781433431198</v>
+        <v>611.4781433431193</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8216,16 +8216,16 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>216.8905660381772</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>538.6709705465827</v>
       </c>
       <c r="M5" t="n">
-        <v>668.5156360519582</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N5" t="n">
-        <v>667.909075792015</v>
+        <v>667.9090757920145</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8234,7 +8234,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,25 +8295,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>611.1777065035427</v>
+        <v>492.8960778890026</v>
       </c>
       <c r="N6" t="n">
-        <v>369.3046573618274</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>611.4781433431198</v>
+        <v>611.4781433431193</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,7 +8453,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>311.2540453751037</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8465,7 +8465,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
@@ -8529,28 +8529,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>674.5394322581651</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234615</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,22 +8766,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.2265410010273</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>550.6002160777358</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
@@ -8942,7 +8942,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
         <v>331.2113854294513</v>
@@ -9009,16 +9009,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>517.3131487114046</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>579.1898666384017</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,19 +9249,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>340.2745745069883</v>
+        <v>550.6002160777358</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684351</v>
+        <v>263.7907196684361</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,10 +9486,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N21" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9723,7 +9723,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>340.2745745069883</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N24" t="n">
         <v>85.37211285416666</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095471</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10434,7 +10434,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069886</v>
+        <v>340.2745745069887</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10911,7 +10911,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11136,19 +11136,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11376,7 +11376,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
@@ -11385,13 +11385,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873668</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372795</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.85636422001407</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>75.64278518289674</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>53.76661421924462</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681704</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338909</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901693</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>25.97020798307767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372783</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.47163753940735</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>33.41738951287937</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215417</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993869</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177841</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465753</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442479</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.6851687145609</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.27805292194075</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>156.3934018661214</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>698148.0937170787</v>
+        <v>698148.0937170789</v>
       </c>
     </row>
     <row r="6">
@@ -26314,43 +26314,43 @@
         <v>486896.8808520634</v>
       </c>
       <c r="C2" t="n">
-        <v>486896.8808520632</v>
+        <v>486896.8808520634</v>
       </c>
       <c r="D2" t="n">
-        <v>486896.8808520635</v>
+        <v>486896.8808520637</v>
       </c>
       <c r="E2" t="n">
-        <v>430269.3632458816</v>
+        <v>430269.3632458815</v>
       </c>
       <c r="F2" t="n">
         <v>430269.3632458819</v>
       </c>
       <c r="G2" t="n">
-        <v>486896.8808520628</v>
+        <v>486896.8808520627</v>
       </c>
       <c r="H2" t="n">
         <v>486896.8808520627</v>
       </c>
       <c r="I2" t="n">
+        <v>486896.8808520626</v>
+      </c>
+      <c r="J2" t="n">
+        <v>486896.8808520634</v>
+      </c>
+      <c r="K2" t="n">
+        <v>486896.8808520635</v>
+      </c>
+      <c r="L2" t="n">
+        <v>486896.8808520626</v>
+      </c>
+      <c r="M2" t="n">
         <v>486896.8808520625</v>
-      </c>
-      <c r="J2" t="n">
-        <v>486896.8808520631</v>
-      </c>
-      <c r="K2" t="n">
-        <v>486896.8808520631</v>
-      </c>
-      <c r="L2" t="n">
-        <v>486896.8808520627</v>
-      </c>
-      <c r="M2" t="n">
-        <v>486896.8808520627</v>
       </c>
       <c r="N2" t="n">
         <v>486896.8808520628</v>
       </c>
       <c r="O2" t="n">
-        <v>486896.8808520628</v>
+        <v>486896.8808520627</v>
       </c>
       <c r="P2" t="n">
         <v>486896.8808520627</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>173858.6570340552</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22558.42953401333</v>
+        <v>22558.42953401354</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668185</v>
+        <v>47425.32553668194</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>200285.8640399294</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>62456.24177539656</v>
+        <v>62456.24177539676</v>
       </c>
       <c r="M3" t="n">
-        <v>43252.52447081124</v>
+        <v>43252.52447081119</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277119</v>
+        <v>27767.6940427712</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182175.2523115085</v>
+        <v>183207.3741628805</v>
       </c>
       <c r="C4" t="n">
-        <v>182175.2523115085</v>
+        <v>183207.3741628805</v>
       </c>
       <c r="D4" t="n">
-        <v>163288.2462945271</v>
+        <v>164406.0159475425</v>
       </c>
       <c r="E4" t="n">
-        <v>84165.97442385988</v>
+        <v>85426.15928637524</v>
       </c>
       <c r="F4" t="n">
-        <v>84165.97442386</v>
+        <v>85426.15928637527</v>
       </c>
       <c r="G4" t="n">
-        <v>131924.8909154421</v>
+        <v>133185.0757779574</v>
       </c>
       <c r="H4" t="n">
-        <v>131924.8909154421</v>
+        <v>133185.0757779574</v>
       </c>
       <c r="I4" t="n">
-        <v>131924.8909154421</v>
+        <v>133185.0757779574</v>
       </c>
       <c r="J4" t="n">
-        <v>132675.3833798253</v>
+        <v>133935.5682423406</v>
       </c>
       <c r="K4" t="n">
-        <v>132675.3833798253</v>
+        <v>133935.5682423406</v>
       </c>
       <c r="L4" t="n">
-        <v>132286.4148702871</v>
+        <v>133546.5997328024</v>
       </c>
       <c r="M4" t="n">
-        <v>131924.8909154421</v>
+        <v>133185.0757779574</v>
       </c>
       <c r="N4" t="n">
-        <v>131924.8909154421</v>
+        <v>133185.0757779574</v>
       </c>
       <c r="O4" t="n">
-        <v>131924.8909154422</v>
+        <v>133185.0757779575</v>
       </c>
       <c r="P4" t="n">
-        <v>131924.8909154421</v>
+        <v>133185.0757779574</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26467,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65170.06753481724</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>65170.06753481724</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984051</v>
+        <v>53186.01969984052</v>
       </c>
       <c r="F5" t="n">
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>60823.19813315424</v>
+        <v>60823.19813315422</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
+        <v>58169.76931551968</v>
+      </c>
+      <c r="P5" t="n">
         <v>58169.76931551966</v>
-      </c>
-      <c r="P5" t="n">
-        <v>58169.76931551965</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65692.90397168254</v>
+        <v>64660.78212031061</v>
       </c>
       <c r="C6" t="n">
-        <v>239551.5610057375</v>
+        <v>238519.4391543657</v>
       </c>
       <c r="D6" t="n">
-        <v>231464.74774635</v>
+        <v>230346.9780933344</v>
       </c>
       <c r="E6" t="n">
-        <v>180794.8076481367</v>
+        <v>179324.8912389317</v>
       </c>
       <c r="F6" t="n">
-        <v>292917.3691221814</v>
+        <v>291447.4527129765</v>
       </c>
       <c r="G6" t="n">
-        <v>249376.8950844192</v>
+        <v>248116.7102219037</v>
       </c>
       <c r="H6" t="n">
-        <v>296802.2206211009</v>
+        <v>295542.0357585856</v>
       </c>
       <c r="I6" t="n">
-        <v>296802.2206211007</v>
+        <v>295542.0357585855</v>
       </c>
       <c r="J6" t="n">
-        <v>90276.58817838901</v>
+        <v>89016.40331587399</v>
       </c>
       <c r="K6" t="n">
-        <v>290562.4522183183</v>
+        <v>289302.2673558033</v>
       </c>
       <c r="L6" t="n">
-        <v>231331.0260732247</v>
+        <v>230070.8412107092</v>
       </c>
       <c r="M6" t="n">
-        <v>253549.6961502897</v>
+        <v>252289.5112877743</v>
       </c>
       <c r="N6" t="n">
-        <v>296802.220621101</v>
+        <v>295542.0357585857</v>
       </c>
       <c r="O6" t="n">
-        <v>269034.5265783298</v>
+        <v>267774.3417158144</v>
       </c>
       <c r="P6" t="n">
-        <v>296802.220621101</v>
+        <v>295542.0357585856</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.7905844542308</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
-        <v>518.7905844542308</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
         <v>776.4890963014441</v>
@@ -26805,7 +26805,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014442</v>
@@ -26814,22 +26814,22 @@
         <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>844.4391950293141</v>
+        <v>844.4391950293136</v>
       </c>
       <c r="M4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="P4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014442</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085231</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346396</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>78.0703022192457</v>
+        <v>78.07030221924595</v>
       </c>
       <c r="M2" t="n">
-        <v>17.58004954287459</v>
+        <v>17.58004954287441</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.7905844542308</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>72.62154181506401</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="E4" t="n">
-        <v>185.0769700321492</v>
+        <v>185.076970032149</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>659.3622249971648</v>
+        <v>659.3622249971644</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>117.1268713042791</v>
+        <v>117.1268713042795</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085231</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346396</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>518.7905844542308</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>72.62154181506401</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="M4" t="n">
-        <v>185.0769700321492</v>
+        <v>185.076970032149</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27388,16 +27388,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>350.239558087915</v>
       </c>
       <c r="G2" t="n">
-        <v>366.9535874679354</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27467,13 +27467,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>26.66263604343378</v>
+        <v>114.0770782788406</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26.12824959513921</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>23.65888910788243</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27591,7 +27591,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27600,10 +27600,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -27625,7 +27625,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>358.3655635580193</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>131.8020069762953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27746,7 +27746,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>124.5704364758544</v>
+        <v>124.5704364758562</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>177.6936300473455</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>39.56973151112123</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>188.2718157159434</v>
       </c>
       <c r="F8" t="n">
-        <v>207.2374576656885</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28014,25 +28014,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>165.708020294746</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,37 +28719,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>5.636002634530598</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28761,34 +28761,34 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28980,7 +28980,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28989,10 +28989,10 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>28.01250026485258</v>
       </c>
       <c r="N22" t="n">
-        <v>5.636002634528808</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29001,10 +29001,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="R22" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29217,14 +29217,14 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K25" t="n">
-        <v>35.71049010668817</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29302,46 +29302,46 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431647</v>
+        <v>86.65052755599527</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q26" t="n">
-        <v>30.27223765901226</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431647</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431648</v>
+        <v>86.65052755599618</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>30.27223765901181</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431648</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,37 +29746,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>81.10808140893246</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>81.10808140893414</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29791,31 +29791,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R32" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S32" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,43 +29904,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="L34" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M34" t="n">
-        <v>112.7799197727099</v>
+        <v>106.8683420224723</v>
       </c>
       <c r="N34" t="n">
-        <v>106.8683420224741</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -29952,28 +29952,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>112.7799197727099</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30165,14 +30165,14 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>35.71049010668821</v>
-      </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30420,13 +30420,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2979821082773</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30487,7 +30487,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -30639,7 +30639,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>35.71049010668697</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30654,16 +30654,16 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082768</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30876,19 +30876,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>35.71049010668857</v>
+        <v>35.7104901066887</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>518.7905844542308</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>518.7905844542308</v>
+        <v>64.27678509188432</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>73.83216285893974</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>342.6611252569327</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>518.7905844542308</v>
+        <v>400.5089558396907</v>
       </c>
       <c r="O3" t="n">
-        <v>518.7905844542308</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34936,16 +34936,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>73.83216285893984</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>385.422800816091</v>
       </c>
       <c r="M5" t="n">
-        <v>518.7905844542308</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N5" t="n">
-        <v>518.7905844542308</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -34954,7 +34954,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>518.7905844542308</v>
+        <v>400.5089558396907</v>
       </c>
       <c r="N6" t="n">
-        <v>283.9325445076607</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>518.7905844542308</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>168.1956421958663</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35185,7 +35185,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>582.1523102088532</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>113.782083667694</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>458.2130940284239</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.0038249225728</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35574,19 +35574,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
-        <v>192.16534853269</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488435</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
         <v>186.7126870110591</v>
@@ -35729,16 +35729,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>424.9260266620927</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>486.5023077495127</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257291</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K16" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488446</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,19 +35969,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>247.8874524576764</v>
+        <v>458.2130940284239</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>213.0216270023943</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>171.4214974565506</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36057,10 +36057,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,10 +36206,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N21" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36285,10 +36285,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>216.1858117176445</v>
       </c>
       <c r="N22" t="n">
-        <v>190.6760370094876</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36297,10 +36297,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36443,7 +36443,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>247.8874524576764</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>118.3721477934981</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>584.9538525242062</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
@@ -36613,10 +36613,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.9849246700714</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698319</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>362.1450102553805</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
@@ -36844,16 +36844,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>531.1349729017825</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.9849246700709</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.3782898969832</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>247.8874524576761</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37005,10 +37005,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>227.2189631350215</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>579.4114063771451</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37087,10 +37087,10 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>299.492606783769</v>
+        <v>299.4926067837691</v>
       </c>
       <c r="R32" t="n">
-        <v>75.1669351953766</v>
+        <v>75.16693519537669</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576767</v>
+        <v>247.8874524576768</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>82.7054323005508</v>
+        <v>82.70543230055091</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>195.4415774595199</v>
       </c>
       <c r="L34" t="n">
-        <v>278.5654145947299</v>
+        <v>278.56541459473</v>
       </c>
       <c r="M34" t="n">
-        <v>300.9532312255018</v>
+        <v>295.0416534752643</v>
       </c>
       <c r="N34" t="n">
-        <v>291.9083763974328</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
         <v>164.3482495370789</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>201.4959849287082</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P38" t="n">
         <v>351.7045375065877</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37631,7 +37631,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37716,13 +37716,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q40" t="n">
-        <v>131.7547461184298</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835607</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682118</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.636002634527896</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37950,16 +37950,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634527946</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
@@ -38105,13 +38105,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.636002634529504</v>
+        <v>5.636002634529633</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
